--- a/Challenge Part 1/Sample_input_abstracts.xlsx
+++ b/Challenge Part 1/Sample_input_abstracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/rpal03_syr_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{510C07D3-6ED9-4061-9A0B-E2E83BD831D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{394581B1-13A3-462A-8D69-67AD64B698FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{839D6E40-B0E9-1741-8BF5-6150A9A59C25}"/>
   </bookViews>
